--- a/HOJAS DE CÁLCULO/Gestión de Tareas.xlsx
+++ b/HOJAS DE CÁLCULO/Gestión de Tareas.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joses\Documents\GitHub\Gesti-n-Datecsoft\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Documents\GitHub\Gesti-n-Datecsoft\HOJAS DE CÁLCULO\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Diseño</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>Investigar mejores prácticas sobre uso de MYSQL - PHP</t>
+  </si>
+  <si>
+    <t>Diseñar login</t>
   </si>
 </sst>
 </file>
@@ -369,24 +372,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -429,13 +414,31 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -727,7 +730,7 @@
   <dimension ref="B1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -741,106 +744,108 @@
     <row r="2" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="5"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="24"/>
     </row>
     <row r="3" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6" t="s">
+      <c r="C3" s="24"/>
+      <c r="D3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="8" t="s">
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
     </row>
     <row r="4" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="26" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="27"/>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="I4" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="25">
+      <c r="C5" s="17">
         <v>1</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16" t="s">
+      <c r="D5" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="17" t="s">
+      <c r="H5" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="17" t="s">
+      <c r="I5" s="11" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="33" x14ac:dyDescent="0.25">
-      <c r="B6" s="23"/>
-      <c r="C6" s="21">
+      <c r="B6" s="18"/>
+      <c r="C6" s="15">
         <v>2</v>
       </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="20" t="s">
+      <c r="D6" s="12"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="20" t="s">
+      <c r="H6" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="17" t="s">
+      <c r="I6" s="11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="24"/>
-      <c r="C7" s="22">
+      <c r="B7" s="19"/>
+      <c r="C7" s="16">
         <v>3</v>
       </c>
-      <c r="D7" s="18"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20" t="s">
+      <c r="D7" s="12"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14" t="s">
         <v>15</v>
       </c>
     </row>

--- a/HOJAS DE CÁLCULO/Gestión de Tareas.xlsx
+++ b/HOJAS DE CÁLCULO/Gestión de Tareas.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Diseño</t>
   </si>
@@ -80,13 +80,22 @@
     <t>Hacer el diseño de la arquitectura de un proyecto Web genérico.</t>
   </si>
   <si>
-    <t>DATECSOFT - SEMANA DEL 10 DE JULIO DE 2017</t>
-  </si>
-  <si>
     <t>Investigar mejores prácticas sobre uso de MYSQL - PHP</t>
   </si>
   <si>
     <t>Diseñar login</t>
+  </si>
+  <si>
+    <t>De acuerdo al primer proyecto, contactar con los demás posibles clientes.</t>
+  </si>
+  <si>
+    <t>Diseñar propuesta de menú principal</t>
+  </si>
+  <si>
+    <t>DATECSOFT - SEMANA DEL 10 AL 16 DE JULIO DE 2017</t>
+  </si>
+  <si>
+    <t>Contactar con clientes objtivo para realizar su pagina web.</t>
   </si>
 </sst>
 </file>
@@ -730,7 +739,7 @@
   <dimension ref="B1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -745,7 +754,7 @@
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="22" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E2" s="23"/>
       <c r="F2" s="23"/>
@@ -801,9 +810,11 @@
         <v>1</v>
       </c>
       <c r="D5" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="10"/>
       <c r="F5" s="10" t="s">
         <v>13</v>
       </c>
@@ -822,14 +833,18 @@
       <c r="C6" s="15">
         <v>2</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="13"/>
+      <c r="D6" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>23</v>
+      </c>
       <c r="F6" s="13"/>
       <c r="G6" s="14" t="s">
         <v>11</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I6" s="11" t="s">
         <v>14</v>
